--- a/data/georgia_census/adjara/shuaxevi/population_total.xlsx
+++ b/data/georgia_census/adjara/shuaxevi/population_total.xlsx
@@ -1357,13 +1357,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{254E9A41-1F04-40F9-977A-A0F8100B6AB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3BD7D0B-C009-4BF5-A3C2-F52C71FA6374}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4119556-E02A-41E1-8A13-5E0C6688B4DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CC94771-D6FB-441F-B2C0-E0EC47B65B6E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04739EFD-ADE4-49B1-881E-AD882544FB65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CA6F0E7-A533-4A42-959D-3B348E22BB5E}"/>
 </file>